--- a/excel/sablonlar/mkRaporlari.xlsx
+++ b/excel/sablonlar/mkRaporlari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\NewProjects\gitPull\newprojectservis\resource_api\raporlar\sablonlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC99D9-6EC7-43A7-BC3B-8D169805949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2C0C84-8DC9-4860-A4F5-2B2E6F536585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>Tarih</t>
   </si>
@@ -67,19 +67,16 @@
     <t>Toplam</t>
   </si>
   <si>
-    <t>2023 Üretim</t>
-  </si>
-  <si>
-    <t>2023 Sevkiyat</t>
-  </si>
-  <si>
-    <t>2013 ve Öncesi</t>
-  </si>
-  <si>
     <t>Sipariş(Fob)</t>
   </si>
   <si>
     <t>Yükleme(Ddp)</t>
+  </si>
+  <si>
+    <t>2024 Üretim</t>
+  </si>
+  <si>
+    <t>2024 Sevkiyat</t>
   </si>
 </sst>
 </file>
@@ -9518,8 +9515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F349DF-8428-4A68-A07C-AA04AB721F00}">
   <dimension ref="A1:P671"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9538,40 +9535,40 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="1">
         <v>2022</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>2021</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2020</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2019</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2018</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2017</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2016</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2015</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2014</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -18964,7 +18961,7 @@
   <dimension ref="A1:C644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18974,10 +18971,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/excel/sablonlar/mkRaporlari.xlsx
+++ b/excel/sablonlar/mkRaporlari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A3B73-C7D8-4F3A-80A9-C670AE7DCE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF87ACA3-DCCE-4D5D-A6B5-D528A82FB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>Yükleme(Ddp)</t>
   </si>
   <si>
-    <t>2024 Üretim</t>
+    <t>2025 Üretim</t>
   </si>
   <si>
-    <t>2024 Sevkiyat</t>
+    <t>2025 Sevkiyat</t>
   </si>
 </sst>
 </file>
@@ -221,6 +221,13 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,13 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,37 +545,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F482"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2518,102 +2518,102 @@
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6741,66 +6741,66 @@
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9539,59 +9539,59 @@
   <dimension ref="A1:P671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="3">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="3">
         <v>2023</v>
       </c>
-      <c r="H1" s="13">
+      <c r="I1" s="3">
         <v>2022</v>
       </c>
-      <c r="I1" s="13">
+      <c r="J1" s="3">
         <v>2021</v>
       </c>
-      <c r="J1" s="13">
+      <c r="K1" s="3">
         <v>2020</v>
       </c>
-      <c r="K1" s="13">
+      <c r="L1" s="3">
         <v>2019</v>
       </c>
-      <c r="L1" s="13">
+      <c r="M1" s="3">
         <v>2018</v>
       </c>
-      <c r="M1" s="13">
+      <c r="N1" s="3">
         <v>2017</v>
       </c>
-      <c r="N1" s="13">
+      <c r="O1" s="3">
         <v>2016</v>
       </c>
-      <c r="O1" s="13">
+      <c r="P1" s="3">
         <v>2015</v>
-      </c>
-      <c r="P1" s="13">
-        <v>2014</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -18983,20 +18983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C995D66-4E6D-42BB-86C0-CF6950DED9D4}">
   <dimension ref="A1:C644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
